--- a/biology/Botanique/Gaillet/Gaillet.xlsx
+++ b/biology/Botanique/Gaillet/Gaillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galium
-Les gaillets sont des plantes herbacées, vivaces, de la famille des Rubiacées appartenant au genre Galium, dont quelques-unes sont également appelées « caille-lait ».  Ce genre (botanique) regroupe plus de 650 espèces dans le monde[1], dont au moins 45 en Europe[2] ; est une plante herbacée vivace, originaire d’Europe et d’Asie, et couramment utilisée dans la médecine traditionnelle de nombreux pays et pour une grande variété de traitements.
+Les gaillets sont des plantes herbacées, vivaces, de la famille des Rubiacées appartenant au genre Galium, dont quelques-unes sont également appelées « caille-lait ».  Ce genre (botanique) regroupe plus de 650 espèces dans le monde, dont au moins 45 en Europe ; est une plante herbacée vivace, originaire d’Europe et d’Asie, et couramment utilisée dans la médecine traditionnelle de nombreux pays et pour une grande variété de traitements.
 Certaines espèces sont considérées comme adventices volontiers envahissantes, notamment dans les milieux eutrophes ou dystrophes, dont elles sont un des indicateurs possibles.
 Les feuilles et tiges de certaines espèces sont couvertes de minuscules crochets qui leur permettent de s'accrocher aux autres végétaux, mais aussi à la peau et aux tissus à la manière du Velcro.
 Tous les gaillets sont comestibles. Mais certaines sont désagréables crus (à cause de leurs minuscules crochets siliceux) et/ou d'une saveur qui peut être amère.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une croyance populaire répandue, mais invalidée par de nombreux auteurs[3],[4], allègue la présence d'une enzyme permettant de faire cailler le lait alors que cette plante (ou sa fleur ou sa racine selon Monique Dembreville en 1999[5]) n'était utilisée qu'additionnée à une présure souvent d'origine animale, probablement pour aromatiser le fromage. Cette propriété serait à l'origine de l'étymologie populaire « caille-lait », issue du nom de genre Galium (du grec gala, galaktos signifiant « lait »)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une croyance populaire répandue, mais invalidée par de nombreux auteurs allègue la présence d'une enzyme permettant de faire cailler le lait alors que cette plante (ou sa fleur ou sa racine selon Monique Dembreville en 1999) n'était utilisée qu'additionnée à une présure souvent d'origine animale, probablement pour aromatiser le fromage. Cette propriété serait à l'origine de l'étymologie populaire « caille-lait », issue du nom de genre Galium (du grec gala, galaktos signifiant « lait »).
 </t>
         </is>
       </c>
@@ -546,14 +560,16 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de gaillet sont nombreuses, formant le plus grand des genres botanique de la tribu Rubieae, avec (en 2018) 667 espèces réparties de par le monde[1].
-Le genre Galium (comme la plupart de se sections) est non-monophylétique : presque tous les gaillet appartiennent à trois grands clades mélangés à d'autres genres du groupe  Galium s.l. (sauf Galium paradoxum Maxim., 1re lignée divergente trouvée dans le groupe Galium s.l., ensuite traité comme un nouveau genre (Pseudogalium L.-E. Yang, Z.-L. Nie &amp; H. Sun, gen. nov.)[1]. 
-un premier clade est le Galium ss : il ne contient que des espèces de Galium, généralement à six feuilles ou plus par verticille, trouvées surtout dans l'Ancien Monde[1] ;
-un second clade contient quelque espèces (G. maximowiczii ; Asperula. Glabella et Microphysa)[1] ;
-un troisième clade comprend des taxons purement Galium, mais n'ayant généralement que quatre feuilles par verticille, trouvés dans le Nouveau et l'Ancien Monde[1].
-Microphysa est un genre monotypique devant encore être clarifié (pour ses liens phylogénétiques encore confus avec plusieurs taxons spécifiques trouvés en Chine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de gaillet sont nombreuses, formant le plus grand des genres botanique de la tribu Rubieae, avec (en 2018) 667 espèces réparties de par le monde.
+Le genre Galium (comme la plupart de se sections) est non-monophylétique : presque tous les gaillet appartiennent à trois grands clades mélangés à d'autres genres du groupe  Galium s.l. (sauf Galium paradoxum Maxim., 1re lignée divergente trouvée dans le groupe Galium s.l., ensuite traité comme un nouveau genre (Pseudogalium L.-E. Yang, Z.-L. Nie &amp; H. Sun, gen. nov.). 
+un premier clade est le Galium ss : il ne contient que des espèces de Galium, généralement à six feuilles ou plus par verticille, trouvées surtout dans l'Ancien Monde ;
+un second clade contient quelque espèces (G. maximowiczii ; Asperula. Glabella et Microphysa) ;
+un troisième clade comprend des taxons purement Galium, mais n'ayant généralement que quatre feuilles par verticille, trouvés dans le Nouveau et l'Ancien Monde.
+Microphysa est un genre monotypique devant encore être clarifié (pour ses liens phylogénétiques encore confus avec plusieurs taxons spécifiques trouvés en Chine.
 </t>
         </is>
       </c>
@@ -582,10 +598,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles des Gaillets sont en apparence verticillées par suite de la transformation des stipules en feuilles ordinaires (pseudo-verticille résultant de la multiplication des stipules)[7]. Leurs tiges ont souvent une section carrée.
-Selon Li-E Yang et ses collègues (2018) « Contrairement aux inférences antérieures, la combinaison de feuilles opposées associées à deux stipules est proposée comme caractéristique ancestrale du Galium s.l. groupe et même la tribu[1]. De plus, les formes des différents types de corolles et d'inflorescences sont importantes pour distinguer certains taxons au sein des Rubieae »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles des Gaillets sont en apparence verticillées par suite de la transformation des stipules en feuilles ordinaires (pseudo-verticille résultant de la multiplication des stipules). Leurs tiges ont souvent une section carrée.
+Selon Li-E Yang et ses collègues (2018) « Contrairement aux inférences antérieures, la combinaison de feuilles opposées associées à deux stipules est proposée comme caractéristique ancestrale du Galium s.l. groupe et même la tribu. De plus, les formes des différents types de corolles et d'inflorescences sont importantes pour distinguer certains taxons au sein des Rubieae ».
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>plante-hôte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de gaillet :
 Famille des Geometridae :
@@ -659,24 +679,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Usages alimentaires
-Les jeunes pousses tendres et les feuilles des gaillets sont comestibles, crues en salade[8].
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes pousses tendres et les feuilles des gaillets sont comestibles, crues en salade.
 Les fruits/graines de certains gaillets, une fois torréfiées ont été utilisées comme succédané de café.
-Usages médicinaux
-Des gaillets ont connu (ou connaissent encore) de nombreux usages médicinaux : par exemple : 
-en traitement exogène de la peau et des muqueuses, contre le psoriasis[9] et en traitement externe de plaies mal cicatrisées[10] ; le G. album Mill., dit « gaillet blanc » ou « gaillet des haies », est cité par la médecine populaire (albanaise notamment) pour la cicatrisation des plaies et des inflammations gingivales[11] notaient Andrei Mocan et ses collaborateurs en 2019[12];
-en « tisane diurétique pour la guérison de la pyélite ou la cystite »[9], contre l'irritation de la vessie et des reins, selon Andrei Mocan et ses collègues (2019), Galium verum[10] ;
-comme cholérétique, antidiarrhéique dans la médecine traditionnelle de Turquie[10] ;
-comme analgésique[13]
-comme antirhumatismal (en Roumanie)[14] ;
-contre l'épilepsie et l'hystérie (dans la médecine traditionnelle du Monténégro)[10], et comme sédatif[10] (médecine traditionnelle turque).
-« les parties aériennes coupées et séchées de la plante, ‘Herba gallii verii’, sont utilisées à des fins homéopathiques »[9]
-Des travaux récents ont confirmé des activités antibactérienne, antifongique, antiparasitaire et antioxydante de plantes de ce genre botanique[15],[16]. On évoque aussi des effets neuroprotecteurs et anticonvulsifs[17], antiparasitique (pour le Galium mexicanum)[18].
-Des recherches portent sur leurs teneurs en molécules d'intérêt (dont en anthraquinones[19] et en antioxydants)[20] de gaillets, ainsi que sur les meilleurs méthodes d'extraction (par exemple assistée par ultrasons ou par micro-ondes)[12]. À titre d'exemple : parmi 5 espèces de Galiums testés (G. verum, G. album, G. rivale, G. pseudoaristatum et G. purpurum), « les extraits de parties aériennes Galium purpureum et de Galium verum ont montré respectivement la teneur totale en phénols  et en flavonoïdes la plus élevée (...) Les extraits de G. purpureum et de G. verum ont montré respectivement la teneur totale en phénols et en flavonoïdes la plus haute. L'extrait le plus puissant en termes de capacité antioxydante a été obtenu à partir de G. purpureum, tandis que l'extrait obtenu à partir de G. album avait l'effet inhibiteur le plus puissant contre la tyrosinase »[12].
-Autres usages
-Certains extraits de gaillet sont de composants de plusieurs formulations de produits cosmétiques en Roumanie[14] ;
-Les parties aériennes séchées de gaillets « servaient à rembourrer les matelas »[21] ;
-les fleurs de certains gaillet auraient servi à coaguler le lait pour la fabrication du fromage, d'où son nom de caille-lait.</t>
+</t>
         </is>
       </c>
     </row>
@@ -701,12 +712,98 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des gaillets ont connu (ou connaissent encore) de nombreux usages médicinaux : par exemple : 
+en traitement exogène de la peau et des muqueuses, contre le psoriasis et en traitement externe de plaies mal cicatrisées ; le G. album Mill., dit « gaillet blanc » ou « gaillet des haies », est cité par la médecine populaire (albanaise notamment) pour la cicatrisation des plaies et des inflammations gingivales notaient Andrei Mocan et ses collaborateurs en 2019;
+en « tisane diurétique pour la guérison de la pyélite ou la cystite », contre l'irritation de la vessie et des reins, selon Andrei Mocan et ses collègues (2019), Galium verum ;
+comme cholérétique, antidiarrhéique dans la médecine traditionnelle de Turquie ;
+comme analgésique
+comme antirhumatismal (en Roumanie) ;
+contre l'épilepsie et l'hystérie (dans la médecine traditionnelle du Monténégro), et comme sédatif (médecine traditionnelle turque).
+« les parties aériennes coupées et séchées de la plante, ‘Herba gallii verii’, sont utilisées à des fins homéopathiques »
+Des travaux récents ont confirmé des activités antibactérienne, antifongique, antiparasitaire et antioxydante de plantes de ce genre botanique,. On évoque aussi des effets neuroprotecteurs et anticonvulsifs, antiparasitique (pour le Galium mexicanum).
+Des recherches portent sur leurs teneurs en molécules d'intérêt (dont en anthraquinones et en antioxydants) de gaillets, ainsi que sur les meilleurs méthodes d'extraction (par exemple assistée par ultrasons ou par micro-ondes). À titre d'exemple : parmi 5 espèces de Galiums testés (G. verum, G. album, G. rivale, G. pseudoaristatum et G. purpurum), « les extraits de parties aériennes Galium purpureum et de Galium verum ont montré respectivement la teneur totale en phénols  et en flavonoïdes la plus élevée (...) Les extraits de G. purpureum et de G. verum ont montré respectivement la teneur totale en phénols et en flavonoïdes la plus haute. L'extrait le plus puissant en termes de capacité antioxydante a été obtenu à partir de G. purpureum, tandis que l'extrait obtenu à partir de G. album avait l'effet inhibiteur le plus puissant contre la tyrosinase ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gaillet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaillet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres usages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Certains extraits de gaillet sont de composants de plusieurs formulations de produits cosmétiques en Roumanie ;
+Les parties aériennes séchées de gaillets « servaient à rembourrer les matelas » ;
+les fleurs de certains gaillet auraient servi à coaguler le lait pour la fabrication du fromage, d'où son nom de caille-lait.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gaillet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaillet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Phytopathologies, parasitoses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gaillets (Galium spp.) peuvent être attaqués par plusieurs oïdiums (de la famille de Erysiphaceae qui regroupe de nombreux micro champignons parasite (obligatoirement biotrophes) affectant le angiospermes). Il a été récemment constaté que l'« oïdium du gaillet » est en réalité composée d'au moins quatre espèces différentes, à savoir. Neoerysiphe galii, Golovinomyces orontii, G. riedlianus et une espèce jusqu'alors inconnue collectés en Argentine, baptisée Golovinomyces calceolariae[22].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gaillets (Galium spp.) peuvent être attaqués par plusieurs oïdiums (de la famille de Erysiphaceae qui regroupe de nombreux micro champignons parasite (obligatoirement biotrophes) affectant le angiospermes). Il a été récemment constaté que l'« oïdium du gaillet » est en réalité composée d'au moins quatre espèces différentes, à savoir. Neoerysiphe galii, Golovinomyces orontii, G. riedlianus et une espèce jusqu'alors inconnue collectés en Argentine, baptisée Golovinomyces calceolariae.
 Ils peuvent aussi être parasités par de petits arthropodes y formant des gales. 
 			Galle de Schizomyia galiorum
 			Galle de Geocrypta galii
@@ -716,67 +813,109 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Gaillet</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gaillet</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des travaux de recherche portent sur l'intérêt médicinal des gaillet, ainsi que sur la possibilité de les identifier plus facilement, via des critères morphologiques, mai aussi via des marqueurs moléculaires[23].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des travaux de recherche portent sur l'intérêt médicinal des gaillet, ainsi que sur la possibilité de les identifier plus facilement, via des critères morphologiques, mai aussi via des marqueurs moléculaires.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Gaillet</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gaillet</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Dénominations et systématique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asperula et Galium
-Les genres Asperula et Galium ont à l'origine été distingués sur la base de la morphologie de la corolle. Mais même après plusieurs tentatives de redéfinition de ces deux genres sur d'autres bases, morphologiques (notamment la présence ou non de bractéoles) ou génétiques (analyses d’ADN), leur taxonomie n'était toujours pas résolue en 2010[24].
-Principales espèces
-Flore européenne :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Asperula et Galium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Asperula et Galium ont à l'origine été distingués sur la base de la morphologie de la corolle. Mais même après plusieurs tentatives de redéfinition de ces deux genres sur d'autres bases, morphologiques (notamment la présence ou non de bractéoles) ou génétiques (analyses d’ADN), leur taxonomie n'était toujours pas résolue en 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gaillet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaillet</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flore européenne :
 Galium album Mill. — gaillet blanc
 Galium anisophyllon — gaillet à feuilles inégales
 Galium aparine L. — gaillet gratteron
@@ -819,7 +958,7 @@
 Galium verrucosum Huds. — gaillet verruqueux
 Galium verticillatum Danthoine ex Lam. — gaillet verticillé
 Galium verum L. — caille-lait jaune, gaillet vrai
-Selon World Checklist of Selected Plant Families (WCSP)  (11 mars 2012)[25] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 mars 2012) :
 Galium abaujense Borbás (1896)
 Galium abruptorum Pomel (1874)
 Galium absurdum Krendl (1986-1987 publ. 1987)
@@ -1484,33 +1623,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Gaillet</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gaillet</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 24e jour du mois de prairial du calendrier républicain/ révolutionnaire français est officiellement dénommé jour du caille-lait[26], généralement chaque 12 juin du calendrier grégorien.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24e jour du mois de prairial du calendrier républicain/ révolutionnaire français est officiellement dénommé jour du caille-lait, généralement chaque 12 juin du calendrier grégorien.
 </t>
         </is>
       </c>
